--- a/test_data/medium sized data/data.xlsx
+++ b/test_data/medium sized data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travkaie\PycharmProjects\LogisticModel\test_data\med_data_no_index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travkaie\PycharmProjects\LogisticModel\test_data\medium sized data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8731B95-5C93-4F50-8420-1D93897EEE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D14A79-B29C-4022-AB73-70325FA6B3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="4560" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="org_data" sheetId="3" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>size</t>
   </si>
   <si>
-    <t>enthicity</t>
-  </si>
-  <si>
     <t>first_date</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>פנינה יעקב</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
   </si>
 </sst>
 </file>
@@ -683,9 +683,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1043,26 +1044,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1074,72 +1075,72 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45205</v>
       </c>
       <c r="I2" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J2">
-        <v>19</v>
+      <c r="J2" s="2">
+        <v>45218</v>
       </c>
       <c r="K2" s="1">
         <v>0.51041666666666663</v>
       </c>
-      <c r="L2">
-        <v>29</v>
+      <c r="L2" s="2">
+        <v>45228</v>
       </c>
       <c r="M2" s="1">
         <v>0.54166666666666663</v>
@@ -1148,42 +1149,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45209</v>
       </c>
       <c r="I3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J3">
-        <v>16</v>
+      <c r="J3" s="2">
+        <v>45215</v>
       </c>
       <c r="K3" s="1">
         <v>0.57291666666666663</v>
       </c>
-      <c r="L3">
-        <v>18</v>
+      <c r="L3" s="2">
+        <v>45217</v>
       </c>
       <c r="M3" s="1">
         <v>0.54166666666666663</v>
@@ -1192,42 +1193,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45211</v>
       </c>
       <c r="I4" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J4">
-        <v>19</v>
+      <c r="J4" s="2">
+        <v>45218</v>
       </c>
       <c r="K4" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="L4">
-        <v>24</v>
+      <c r="L4" s="2">
+        <v>45223</v>
       </c>
       <c r="M4" s="1">
         <v>0.53125</v>
@@ -1236,42 +1237,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45218</v>
       </c>
       <c r="I5" s="1">
         <v>0.51041666666666663</v>
       </c>
-      <c r="J5">
-        <v>23</v>
+      <c r="J5" s="2">
+        <v>45222</v>
       </c>
       <c r="K5" s="1">
         <v>0.40625</v>
       </c>
-      <c r="L5">
-        <v>29</v>
+      <c r="L5" s="2">
+        <v>45228</v>
       </c>
       <c r="M5" s="1">
         <v>0.5625</v>
@@ -1280,42 +1281,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45202</v>
       </c>
       <c r="I6" s="1">
         <v>0.375</v>
       </c>
-      <c r="J6">
-        <v>5</v>
+      <c r="J6" s="2">
+        <v>45204</v>
       </c>
       <c r="K6" s="1">
         <v>0.40625</v>
       </c>
-      <c r="L6">
-        <v>25</v>
+      <c r="L6" s="2">
+        <v>45224</v>
       </c>
       <c r="M6" s="1">
         <v>0.59375</v>
@@ -1324,42 +1325,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45202</v>
       </c>
       <c r="I7" s="1">
         <v>0.375</v>
       </c>
-      <c r="J7">
-        <v>7</v>
+      <c r="J7" s="2">
+        <v>45206</v>
       </c>
       <c r="K7" s="1">
         <v>0.4375</v>
       </c>
-      <c r="L7">
-        <v>12</v>
+      <c r="L7" s="2">
+        <v>45211</v>
       </c>
       <c r="M7" s="1">
         <v>0.625</v>
@@ -1368,42 +1369,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45204</v>
       </c>
       <c r="I8" s="1">
         <v>0.5</v>
       </c>
-      <c r="J8">
-        <v>9</v>
+      <c r="J8" s="2">
+        <v>45208</v>
       </c>
       <c r="K8" s="1">
         <v>0.4375</v>
       </c>
-      <c r="L8">
-        <v>25</v>
+      <c r="L8" s="2">
+        <v>45224</v>
       </c>
       <c r="M8" s="1">
         <v>0.66666666666666663</v>
@@ -1422,69 +1423,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366004CA-45AC-43F5-802D-16A239C43E12}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>54111</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1496,27 +1497,27 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>54222</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1528,27 +1529,27 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>54333</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1560,27 +1561,27 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>54444</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1592,7 +1593,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/medium sized data/data.xlsx
+++ b/test_data/medium sized data/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travkaie\PycharmProjects\LogisticModel\test_data\medium sized data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D14A79-B29C-4022-AB73-70325FA6B3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F03A85-C060-4D90-8343-5078331C7D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="4560" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="org_data" sheetId="3" r:id="rId1"/>
     <sheet name="lecturer_data" sheetId="4" r:id="rId2"/>
+    <sheet name="נא לא לגעת" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="lecturers">lecturer_data!$A$2:$A$3</definedName>
@@ -38,64 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
-  <si>
-    <t>is_hard</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>feature</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>first_date</t>
-  </si>
-  <si>
-    <t>second_date</t>
-  </si>
-  <si>
-    <t>third_date</t>
-  </si>
-  <si>
-    <t>first_time</t>
-  </si>
-  <si>
-    <t>second_time</t>
-  </si>
-  <si>
-    <t>third_time</t>
-  </si>
-  <si>
-    <t>is_workshop</t>
-  </si>
-  <si>
-    <t>org_name</t>
-  </si>
-  <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>expi</t>
-  </si>
-  <si>
-    <t>vol_limit</t>
-  </si>
-  <si>
-    <t>mobility</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t>Lecturer</t>
   </si>
@@ -103,9 +47,6 @@
     <t>Guide</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>קוקה-קולה</t>
   </si>
   <si>
@@ -199,7 +140,103 @@
     <t>פנינה יעקב</t>
   </si>
   <si>
-    <t>ethnicity</t>
+    <t>רשימת מגזר</t>
+  </si>
+  <si>
+    <t>רשימת "מגיעה ברכב?"</t>
+  </si>
+  <si>
+    <t>Max number of activites allowed in a day</t>
+  </si>
+  <si>
+    <t>Arriving by Car</t>
+  </si>
+  <si>
+    <t>רשימת position</t>
+  </si>
+  <si>
+    <t>Lecturer, Guide</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>בדואית</t>
+  </si>
+  <si>
+    <t>רשימת "Workshop"</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>רשימת שפות</t>
+  </si>
+  <si>
+    <t>אנגלית</t>
+  </si>
+  <si>
+    <t>Organization Name</t>
+  </si>
+  <si>
+    <t>Must match organization's exact enthicity</t>
+  </si>
+  <si>
+    <t>רשימת Organization type</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Organization Type</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Audience Size</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Date (Option 1)</t>
+  </si>
+  <si>
+    <t>Date (Option 3)</t>
+  </si>
+  <si>
+    <t>Date (Option 2)</t>
+  </si>
+  <si>
+    <t>Time (Option 1)</t>
+  </si>
+  <si>
+    <t>Time (Option 2)</t>
+  </si>
+  <si>
+    <t>Time (Option 3)</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>MUST match organization's exact ethnicity</t>
   </si>
 </sst>
 </file>
@@ -342,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,8 +559,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -638,6 +693,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -683,10 +874,71 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -734,6 +986,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1042,558 +1299,2601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="13">
+        <v>15</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="22">
+        <v>45205</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J2" s="22">
+        <v>45218</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="L2" s="22">
+        <v>45228</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="13">
+        <v>16</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="22">
+        <v>45209</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J3" s="22">
+        <v>45215</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="L3" s="22">
+        <v>45217</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="13">
+        <v>15</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="22">
+        <v>45211</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J4" s="22">
+        <v>45218</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="L4" s="22">
+        <v>45223</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0.53125</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="13">
+        <v>17</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="22">
+        <v>45218</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="J5" s="22">
+        <v>45222</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.40625</v>
+      </c>
+      <c r="L5" s="22">
+        <v>45228</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0.5625</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="13">
+        <v>18</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="22">
+        <v>45202</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="J6" s="22">
+        <v>45204</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0.40625</v>
+      </c>
+      <c r="L6" s="22">
+        <v>45224</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="13">
+        <v>29</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="22">
+        <v>45202</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="J7" s="22">
+        <v>45206</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="L7" s="22">
+        <v>45211</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2">
-        <v>45205</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J2" s="2">
-        <v>45218</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="L2" s="2">
-        <v>45228</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="2">
-        <v>45209</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J3" s="2">
-        <v>45215</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="L3" s="2">
-        <v>45217</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45211</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J4" s="2">
-        <v>45218</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="L4" s="2">
-        <v>45223</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45218</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="J5" s="2">
-        <v>45222</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="L5" s="2">
-        <v>45228</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6">
+      <c r="C8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45202</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="F8" s="13">
+        <v>18</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="22">
         <v>45204</v>
       </c>
-      <c r="K6" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="I8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="22">
+        <v>45208</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="L8" s="22">
         <v>45224</v>
       </c>
-      <c r="M6" s="1">
-        <v>0.59375</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2">
-        <v>45202</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="J7" s="2">
-        <v>45206</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="L7" s="2">
-        <v>45211</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45204</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="2">
-        <v>45208</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="L8" s="2">
-        <v>45224</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="M8" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
+      <c r="N8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="13"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="13"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="13"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="13"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="13"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="13"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="13"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="13"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="13"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="13"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="13"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="13"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="13"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="13"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="13"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="13"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="13"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="13"/>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="13"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="13"/>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="13"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="13"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="13"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="13"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="13"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="13"/>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="13"/>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="13"/>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="13"/>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="13"/>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="13"/>
+      <c r="G68" s="13"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="13"/>
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="13"/>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="13"/>
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="13"/>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="13"/>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="13"/>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="13"/>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="13"/>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="13"/>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="13"/>
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="13"/>
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="13"/>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="13"/>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="13"/>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="13"/>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="13"/>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="13"/>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="13"/>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="13"/>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="13"/>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="13"/>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="13"/>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="13"/>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="13"/>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="13"/>
+      <c r="G93" s="13"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="13"/>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="13"/>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="13"/>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="13"/>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="13"/>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="13"/>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="13"/>
+      <c r="G100" s="13"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="13"/>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="13"/>
+      <c r="G102" s="13"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="13"/>
+      <c r="G103" s="13"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="13"/>
+      <c r="G104" s="13"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="13"/>
+      <c r="G105" s="13"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="13"/>
+      <c r="G106" s="13"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="13"/>
+      <c r="G107" s="13"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="13"/>
+      <c r="G108" s="13"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="13"/>
+      <c r="G109" s="13"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="13"/>
+      <c r="G110" s="13"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="13"/>
+      <c r="G111" s="13"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="13"/>
+      <c r="G112" s="13"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="13"/>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="13"/>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="13"/>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="13"/>
+      <c r="G116" s="13"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="13"/>
+      <c r="G117" s="13"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="13"/>
+      <c r="G118" s="13"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="13"/>
+      <c r="G119" s="13"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="13"/>
+      <c r="G120" s="13"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="13"/>
+      <c r="G121" s="13"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="13"/>
+      <c r="G122" s="13"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="13"/>
+      <c r="G123" s="13"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="13"/>
+      <c r="G124" s="13"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="13"/>
+      <c r="G125" s="13"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="13"/>
+      <c r="G126" s="13"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="13"/>
+      <c r="G127" s="13"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="13"/>
+      <c r="G128" s="13"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="13"/>
+      <c r="G129" s="13"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="13"/>
+      <c r="G130" s="13"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="13"/>
+      <c r="G131" s="13"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="13"/>
+      <c r="G132" s="13"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="13"/>
+      <c r="G133" s="13"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="13"/>
+      <c r="G134" s="13"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="13"/>
+      <c r="G135" s="13"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="13"/>
+      <c r="G136" s="13"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="13"/>
+      <c r="G137" s="13"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="13"/>
+      <c r="G138" s="13"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="13"/>
+      <c r="G139" s="13"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="13"/>
+      <c r="G140" s="13"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="13"/>
+      <c r="G141" s="13"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="13"/>
+      <c r="G142" s="13"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="13"/>
+      <c r="G143" s="13"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="13"/>
+      <c r="G144" s="13"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="13"/>
+      <c r="G145" s="13"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="13"/>
+      <c r="G146" s="13"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="13"/>
+      <c r="G147" s="13"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="13"/>
+      <c r="G148" s="13"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="13"/>
+      <c r="G149" s="13"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="13"/>
+      <c r="G150" s="13"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" s="13"/>
+      <c r="G151" s="13"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="13"/>
+      <c r="G152" s="13"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="13"/>
+      <c r="G153" s="13"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="13"/>
+      <c r="G154" s="13"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="13"/>
+      <c r="G155" s="13"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="13"/>
+      <c r="G156" s="13"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="13"/>
+      <c r="G157" s="13"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="13"/>
+      <c r="G158" s="13"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="13"/>
+      <c r="G159" s="13"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="13"/>
+      <c r="G160" s="13"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="13"/>
+      <c r="G161" s="13"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="13"/>
+      <c r="G162" s="13"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="13"/>
+      <c r="G163" s="13"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="13"/>
+      <c r="G164" s="13"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="13"/>
+      <c r="G165" s="13"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="13"/>
+      <c r="G166" s="13"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="13"/>
+      <c r="G167" s="13"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="13"/>
+      <c r="G168" s="13"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="13"/>
+      <c r="G169" s="13"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="13"/>
+      <c r="G170" s="13"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="13"/>
+      <c r="G171" s="13"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="13"/>
+      <c r="G172" s="13"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="13"/>
+      <c r="G173" s="13"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="13"/>
+      <c r="G174" s="13"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="13"/>
+      <c r="G175" s="13"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="13"/>
+      <c r="G176" s="13"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="13"/>
+      <c r="G177" s="13"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="13"/>
+      <c r="G178" s="13"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="13"/>
+      <c r="G179" s="13"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="13"/>
+      <c r="G180" s="13"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" s="13"/>
+      <c r="G181" s="13"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" s="13"/>
+      <c r="G182" s="13"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="13"/>
+      <c r="G183" s="13"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="13"/>
+      <c r="G184" s="13"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="13"/>
+      <c r="G185" s="13"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="13"/>
+      <c r="G186" s="13"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" s="13"/>
+      <c r="G187" s="13"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188" s="13"/>
+      <c r="G188" s="13"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189" s="13"/>
+      <c r="G189" s="13"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B190" s="13"/>
+      <c r="G190" s="13"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191" s="13"/>
+      <c r="G191" s="13"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" s="13"/>
+      <c r="G192" s="13"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="13"/>
+      <c r="G193" s="13"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="13"/>
+      <c r="G194" s="13"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="13"/>
+      <c r="G195" s="13"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="13"/>
+      <c r="G196" s="13"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="13"/>
+      <c r="G197" s="13"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="13"/>
+      <c r="G198" s="13"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="13"/>
+      <c r="G199" s="13"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" s="13"/>
+      <c r="G200" s="13"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="13"/>
+      <c r="G201" s="13"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" s="13"/>
+      <c r="G202" s="13"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" s="13"/>
+      <c r="G203" s="13"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="13"/>
+      <c r="G204" s="13"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" s="13"/>
+      <c r="G205" s="13"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206" s="13"/>
+      <c r="G206" s="13"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="13"/>
+      <c r="G207" s="13"/>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="13"/>
+      <c r="G208" s="13"/>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B209" s="13"/>
+      <c r="G209" s="13"/>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B210" s="13"/>
+      <c r="G210" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="טעות הקלדה" error="ניתן להקליד רק ימים בין ה1 לחודש עד ה31 לחודש" xr:uid="{76E70ED5-462E-4FD7-8364-F465E13E5926}">
+          <x14:formula1>
+            <xm:f>'נא לא לגעת'!I2</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J211 H2:H210 L2:L211</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D65DE8AF-DB83-4374-B645-3B554B5AE135}">
+          <x14:formula1>
+            <xm:f>'נא לא לגעת'!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N210</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A67E358-6882-48F9-A89D-139EE8BD7CB8}">
+          <x14:formula1>
+            <xm:f>'נא לא לגעת'!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G210</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CA767C31-9E20-4BD7-BF51-8DFFF8A5CDA2}">
+          <x14:formula1>
+            <xm:f>'נא לא לגעת'!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D210</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB1E7573-67DE-4864-9C7C-084C87ECA7E4}">
+          <x14:formula1>
+            <xm:f>'נא לא לגעת'!$F$2:$F$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C210</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA005D13-81C2-4446-AC77-C72F3E231A56}">
+          <x14:formula1>
+            <xm:f>'נא לא לגעת'!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B210</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366004CA-45AC-43F5-802D-16A239C43E12}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
+        <v>54111</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3">
+        <v>54222</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3">
+        <v>54333</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>54444</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="J111" s="2"/>
+    </row>
+    <row r="112" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="J112" s="2"/>
+    </row>
+    <row r="113" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="J113" s="2"/>
+    </row>
+    <row r="114" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="J116" s="2"/>
+    </row>
+    <row r="117" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="J117" s="2"/>
+    </row>
+    <row r="118" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="J118" s="2"/>
+    </row>
+    <row r="119" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="J119" s="2"/>
+    </row>
+    <row r="120" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="J120" s="2"/>
+    </row>
+    <row r="121" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="J121" s="2"/>
+    </row>
+    <row r="122" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="J122" s="2"/>
+    </row>
+    <row r="123" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="J123" s="2"/>
+    </row>
+    <row r="124" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="J124" s="2"/>
+    </row>
+    <row r="125" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="J125" s="2"/>
+    </row>
+    <row r="126" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="J126" s="2"/>
+    </row>
+    <row r="127" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="J127" s="2"/>
+    </row>
+    <row r="128" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="J128" s="2"/>
+    </row>
+    <row r="129" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="J129" s="2"/>
+    </row>
+    <row r="130" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="J130" s="2"/>
+    </row>
+    <row r="131" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="J134" s="2"/>
+    </row>
+    <row r="135" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="J135" s="2"/>
+    </row>
+    <row r="136" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="J137" s="2"/>
+    </row>
+    <row r="138" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="J138" s="2"/>
+    </row>
+    <row r="139" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="J139" s="2"/>
+    </row>
+    <row r="140" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="J140" s="2"/>
+    </row>
+    <row r="141" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="J141" s="2"/>
+    </row>
+    <row r="142" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="J142" s="2"/>
+    </row>
+    <row r="143" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="J143" s="2"/>
+    </row>
+    <row r="144" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="J144" s="2"/>
+    </row>
+    <row r="145" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="J145" s="2"/>
+    </row>
+    <row r="146" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="J146" s="2"/>
+    </row>
+    <row r="147" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="J147" s="2"/>
+    </row>
+    <row r="148" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="J148" s="2"/>
+    </row>
+    <row r="149" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="J149" s="2"/>
+    </row>
+    <row r="150" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="J150" s="2"/>
+    </row>
+    <row r="151" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="J151" s="2"/>
+    </row>
+    <row r="152" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="J152" s="2"/>
+    </row>
+    <row r="153" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="J153" s="2"/>
+    </row>
+    <row r="154" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="J154" s="2"/>
+    </row>
+    <row r="155" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="J155" s="2"/>
+    </row>
+    <row r="156" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="J156" s="2"/>
+    </row>
+    <row r="157" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="J157" s="2"/>
+    </row>
+    <row r="158" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="J158" s="2"/>
+    </row>
+    <row r="159" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="J159" s="2"/>
+    </row>
+    <row r="160" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="J160" s="2"/>
+    </row>
+    <row r="161" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="J161" s="2"/>
+    </row>
+    <row r="162" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="J162" s="2"/>
+    </row>
+    <row r="163" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="J163" s="2"/>
+    </row>
+    <row r="164" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="J164" s="2"/>
+    </row>
+    <row r="165" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="J165" s="2"/>
+    </row>
+    <row r="166" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="J166" s="2"/>
+    </row>
+    <row r="167" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="J167" s="2"/>
+    </row>
+    <row r="168" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="J168" s="2"/>
+    </row>
+    <row r="169" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="J169" s="2"/>
+    </row>
+    <row r="170" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="J170" s="2"/>
+    </row>
+    <row r="171" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="J171" s="2"/>
+    </row>
+    <row r="172" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="J172" s="2"/>
+    </row>
+    <row r="173" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="J173" s="2"/>
+    </row>
+    <row r="174" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="J174" s="2"/>
+    </row>
+    <row r="175" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="J175" s="2"/>
+    </row>
+    <row r="176" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="J176" s="2"/>
+    </row>
+    <row r="177" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="J177" s="2"/>
+    </row>
+    <row r="178" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="J178" s="2"/>
+    </row>
+    <row r="179" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="J179" s="2"/>
+    </row>
+    <row r="180" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="J180" s="2"/>
+    </row>
+    <row r="181" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="J181" s="2"/>
+    </row>
+    <row r="182" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="J182" s="2"/>
+    </row>
+    <row r="183" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="J183" s="2"/>
+    </row>
+    <row r="184" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="J184" s="2"/>
+    </row>
+    <row r="185" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="J185" s="2"/>
+    </row>
+    <row r="186" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="J186" s="2"/>
+    </row>
+    <row r="187" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="J187" s="2"/>
+    </row>
+    <row r="188" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="J188" s="2"/>
+    </row>
+    <row r="189" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="J189" s="2"/>
+    </row>
+    <row r="190" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="J190" s="2"/>
+    </row>
+    <row r="191" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="J191" s="2"/>
+    </row>
+    <row r="192" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="J192" s="2"/>
+    </row>
+    <row r="193" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="J193" s="2"/>
+    </row>
+    <row r="194" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="J194" s="2"/>
+    </row>
+    <row r="195" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="J195" s="2"/>
+    </row>
+    <row r="196" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="J196" s="2"/>
+    </row>
+    <row r="197" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="J197" s="2"/>
+    </row>
+    <row r="198" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="J198" s="2"/>
+    </row>
+    <row r="199" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="J199" s="2"/>
+    </row>
+    <row r="200" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="J200" s="2"/>
+    </row>
+    <row r="201" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="J201" s="2"/>
+    </row>
+    <row r="202" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="J202" s="2"/>
+    </row>
+    <row r="203" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="J203" s="2"/>
+    </row>
+    <row r="204" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="J204" s="2"/>
+    </row>
+    <row r="205" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="J205" s="2"/>
+    </row>
+    <row r="206" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="J206" s="2"/>
+    </row>
+    <row r="207" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="J207" s="2"/>
+    </row>
+    <row r="208" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="J208" s="2"/>
+    </row>
+    <row r="209" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="J209" s="2"/>
+    </row>
+    <row r="210" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="J210" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77ECBFBE-C1D9-4D8E-BA29-68F1E444DDA1}">
+          <x14:formula1>
+            <xm:f>'נא לא לגעת'!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J210</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0101CD11-ED91-4288-89B9-4B4FC6161AAB}">
+          <x14:formula1>
+            <xm:f>'נא לא לגעת'!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F210</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AF88933-4BCF-4AE3-B2BA-6D60FB56CBAF}">
+          <x14:formula1>
+            <xm:f>'נא לא לגעת'!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G210</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3F0D24-9242-477D-BF39-7DCEC5CDD3FF}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="23">
+        <f ca="1">TODAY()</f>
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>54111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3">
-        <v>54222</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4">
-        <v>54333</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F6" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>54444</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
